--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754141.2448040829</v>
+        <v>754606.3096623628</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238723</v>
+        <v>2396483.305182807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.13846177</v>
+        <v>8681080.949752063</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7624746.351657214</v>
+        <v>7734918.746270832</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.7842945418048</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>278.9357490967223</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864692</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>19.72182071016296</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>336.7484257707729</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.07869429521004</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.06108550035312</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>134.9020580433553</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>19.85905444009098</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>282.9521603150953</v>
+        <v>384.8432471689912</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>292.9599730128435</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>316.5487336740566</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -1825,10 +1827,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>25.33675171363424</v>
+        <v>99.68660328817539</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
@@ -2059,10 +2061,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W19" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>35.74523592065157</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>225.0662100665129</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,22 +2247,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>7.755913384878943</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>123.0703308174843</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>150.439341149084</v>
       </c>
       <c r="T23" t="n">
-        <v>159.5585517192797</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>93.52529077486052</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>326.2205230446767</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>269.4069855745573</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2621,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>50.318906334412</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.6080414479073</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>157.6926523830317</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3037,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>342.4863548538519</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3184,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>9.936707027008605</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>85.84356265118763</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>157.0292608572034</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>296.9625607662613</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>241.6208061547494</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,22 +3505,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>92.31340177010368</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>336.8179925468349</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -3548,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5.662308457042578</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3758,7 +3760,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>106.424683268754</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.119925841949662</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>155.6053465906474</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.2591274030253</v>
       </c>
       <c r="G44" t="n">
-        <v>299.1354411934404</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>87.95308749070813</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.7890777533881</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.31297010154361</v>
+        <v>1927.160845651304</v>
       </c>
       <c r="C2" t="n">
-        <v>47.31297010154361</v>
+        <v>1533.985344154235</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154361</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>745.960690487447</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>329.0662520174247</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1231.283934773481</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1759.095218410943</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>2199.134819303272</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U2" t="n">
-        <v>1719.881618012246</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V2" t="n">
-        <v>1377.774808715765</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W2" t="n">
-        <v>1006.775773684052</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X2" t="n">
-        <v>617.323168617109</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.8324595377101</v>
+        <v>2327.655591362701</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195844</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M3" t="n">
-        <v>1029.265125924707</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D4" t="n">
-        <v>2264.291529939333</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E4" t="n">
-        <v>2108.732717798535</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F4" t="n">
-        <v>1951.406783011508</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G4" t="n">
-        <v>1783.152729110954</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>1627.674178072448</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1614.549747034508</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.374245537439</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="D5" t="n">
-        <v>1221.374245537439</v>
+        <v>790.0464200059819</v>
       </c>
       <c r="E5" t="n">
-        <v>1201.453214517072</v>
+        <v>387.4628951225264</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>1985.548782066221</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1614.549747034508</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>1614.549747034508</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y5" t="n">
-        <v>1614.549747034508</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834974</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M6" t="n">
-        <v>1549.231189288413</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486198</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
         <v>2365.648505077179</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4753,22 +4755,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>622.0429194582225</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U7" t="n">
-        <v>336.6041277001235</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V7" t="n">
-        <v>70.62478252094769</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.7909334550213</v>
+        <v>524.9463551197125</v>
       </c>
       <c r="C8" t="n">
-        <v>866.7909334550213</v>
+        <v>524.9463551197125</v>
       </c>
       <c r="D8" t="n">
-        <v>866.7909334550213</v>
+        <v>524.9463551197125</v>
       </c>
       <c r="E8" t="n">
-        <v>464.2074085715658</v>
+        <v>524.9463551197125</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>524.9463551197125</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V8" t="n">
-        <v>1800.041093340115</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="W8" t="n">
-        <v>1800.041093340115</v>
+        <v>1310.889669266055</v>
       </c>
       <c r="X8" t="n">
-        <v>1663.776388245817</v>
+        <v>921.4370641991114</v>
       </c>
       <c r="Y8" t="n">
-        <v>1267.285679166418</v>
+        <v>524.9463551197125</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4877,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N9" t="n">
         <v>1443.506853769801</v>
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>882.0615091076409</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C11" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D11" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E11" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F11" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
         <v>191.9627430103717</v>
@@ -5048,43 +5050,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="N11" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W11" t="n">
-        <v>1994.649470045468</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X11" t="n">
-        <v>1605.196864978524</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="Y11" t="n">
-        <v>1208.706155899126</v>
+        <v>1173.289328743001</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.141762214911</v>
+        <v>1065.665103390099</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.141762214911</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5163,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>882.0615091076409</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>596.6227173495417</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>330.643372170366</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365783</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868714</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085382</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019261</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>367.0591657319038</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743001</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L15" t="n">
-        <v>272.5108437565964</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631986</v>
+        <v>745.9259573278729</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5464,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6228038740554</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2135.549357805132</v>
+        <v>1243.319282867973</v>
       </c>
       <c r="C17" t="n">
-        <v>1742.373856308063</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D17" t="n">
-        <v>1742.373856308063</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.790331424607</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F17" t="n">
-        <v>922.895892954585</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G17" t="n">
-        <v>509.7331374425881</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>318.7636682303387</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>864.7645682749193</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1392.575851912381</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362702</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.142036303753</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2135.549357805132</v>
+        <v>2800.756377757424</v>
       </c>
       <c r="U17" t="n">
-        <v>2135.549357805132</v>
+        <v>2800.756377757424</v>
       </c>
       <c r="V17" t="n">
-        <v>2135.549357805132</v>
+        <v>2800.756377757424</v>
       </c>
       <c r="W17" t="n">
-        <v>2135.549357805132</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="X17" t="n">
-        <v>2135.549357805132</v>
+        <v>2040.304737658769</v>
       </c>
       <c r="Y17" t="n">
-        <v>2135.549357805132</v>
+        <v>1643.81402857937</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>194.5661265746808</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>678.1322124729941</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1263.630217479596</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.128222486198</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.648505077179</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6228038740554</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>979.0728748920524</v>
+        <v>560.6455939549091</v>
       </c>
       <c r="C20" t="n">
-        <v>585.897373394983</v>
+        <v>560.6455939549091</v>
       </c>
       <c r="D20" t="n">
-        <v>200.4562446116507</v>
+        <v>560.6455939549091</v>
       </c>
       <c r="E20" t="n">
-        <v>200.4562446116507</v>
+        <v>560.6455939549091</v>
       </c>
       <c r="F20" t="n">
-        <v>200.4562446116507</v>
+        <v>560.6455939549091</v>
       </c>
       <c r="G20" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H20" t="n">
         <v>200.4562446116507</v>
@@ -5777,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U20" t="n">
-        <v>2878.616779077985</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V20" t="n">
-        <v>2536.509969781504</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W20" t="n">
-        <v>2165.510934749791</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X20" t="n">
-        <v>1776.058329682848</v>
+        <v>1357.631048745705</v>
       </c>
       <c r="Y20" t="n">
-        <v>1379.567620603449</v>
+        <v>961.1403396663061</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>839.6651608782449</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="C22" t="n">
-        <v>839.6651608782449</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="D22" t="n">
-        <v>839.6651608782449</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="E22" t="n">
-        <v>684.1063487374474</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="F22" t="n">
-        <v>526.7804139504203</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="G22" t="n">
-        <v>358.5263600498658</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="H22" t="n">
-        <v>203.0478090113598</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I22" t="n">
-        <v>69.95338364843769</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
         <v>62.11912770411553</v>
@@ -5932,28 +5934,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V22" t="n">
-        <v>839.6651608782449</v>
+        <v>603.5336329416956</v>
       </c>
       <c r="W22" t="n">
-        <v>839.6651608782449</v>
+        <v>603.5336329416956</v>
       </c>
       <c r="X22" t="n">
-        <v>839.6651608782449</v>
+        <v>603.5336329416956</v>
       </c>
       <c r="Y22" t="n">
-        <v>839.6651608782449</v>
+        <v>380.4215717583389</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>840.7357579845172</v>
+        <v>937.702050557157</v>
       </c>
       <c r="C23" t="n">
-        <v>447.5602564874478</v>
+        <v>937.702050557157</v>
       </c>
       <c r="D23" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="E23" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6016,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>2916.004541037678</v>
       </c>
       <c r="T23" t="n">
-        <v>2740.27966217045</v>
+        <v>2692.503938597094</v>
       </c>
       <c r="U23" t="n">
-        <v>2740.27966217045</v>
+        <v>2436.751209031693</v>
       </c>
       <c r="V23" t="n">
-        <v>2398.172852873969</v>
+        <v>2094.644399735212</v>
       </c>
       <c r="W23" t="n">
-        <v>2027.173817842256</v>
+        <v>1723.645364703499</v>
       </c>
       <c r="X23" t="n">
-        <v>1637.721212775313</v>
+        <v>1334.192759636556</v>
       </c>
       <c r="Y23" t="n">
-        <v>1241.230503695914</v>
+        <v>937.702050557157</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2009.716291882317</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C25" t="n">
-        <v>793.3610323116571</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D25" t="n">
-        <v>637.7279192141718</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E25" t="n">
-        <v>482.1691070733743</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F25" t="n">
-        <v>324.8431722863473</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G25" t="n">
-        <v>156.5891183857928</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="W25" t="n">
-        <v>963.5661502456679</v>
+        <v>2271.207846199679</v>
       </c>
       <c r="X25" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>593.6317461087201</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C26" t="n">
-        <v>200.4562446116507</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D26" t="n">
-        <v>200.4562446116507</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>200.4562446116507</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>200.4562446116507</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2080.089775129883</v>
+        <v>2833.828116948648</v>
       </c>
       <c r="W26" t="n">
-        <v>1709.09074009817</v>
+        <v>2462.829081916935</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.638135031227</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="Y26" t="n">
-        <v>923.1474259518279</v>
+        <v>2073.376476849992</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>580.3847592515303</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.156408878212</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N27" t="n">
-        <v>1863.93438008877</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O27" t="n">
-        <v>2380.454662679751</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1243.319282867973</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C29" t="n">
-        <v>850.1437813709033</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D29" t="n">
-        <v>464.702652587571</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E29" t="n">
         <v>62.11912770411553</v>
@@ -6500,13 +6502,13 @@
         <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2029.262597014315</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>1639.809991947372</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1243.319282867973</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E31" t="n">
-        <v>2667.067170996156</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F31" t="n">
-        <v>2509.741236209129</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G31" t="n">
-        <v>2341.487182308575</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H31" t="n">
         <v>2204.509362664224</v>
@@ -6649,22 +6651,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>2586.906931305188</v>
       </c>
       <c r="X31" t="n">
-        <v>2822.625983136954</v>
+        <v>2427.62142384758</v>
       </c>
       <c r="Y31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2073.376476849992</v>
+        <v>1325.018687875741</v>
       </c>
       <c r="C32" t="n">
-        <v>1680.200975352922</v>
+        <v>931.8431863786718</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.75984656959</v>
+        <v>546.4020575953396</v>
       </c>
       <c r="E32" t="n">
-        <v>892.1763216861347</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2818832161124</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6728,22 +6730,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W32" t="n">
-        <v>3105.956385205776</v>
+        <v>2511.45674773348</v>
       </c>
       <c r="X32" t="n">
-        <v>2870.361931640788</v>
+        <v>2122.004142666537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2473.871222561389</v>
+        <v>1725.513433587138</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C33" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D33" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H33" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>822.3203958792419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>1305.886481777555</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1933.658131404236</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>2589.436102614795</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>3105.956385205776</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R33" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S33" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T33" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U33" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V33" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W33" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X33" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y33" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.636305331118</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="C34" t="n">
-        <v>2527.431187397107</v>
+        <v>2935.751267271766</v>
       </c>
       <c r="D34" t="n">
-        <v>2517.394109592048</v>
+        <v>2935.751267271766</v>
       </c>
       <c r="E34" t="n">
-        <v>2361.835297451251</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>2691.714663140105</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J34" t="n">
         <v>2204.509362664224</v>
@@ -6901,7 +6903,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="Y34" t="n">
-        <v>2882.84432402242</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2308.970930414981</v>
+        <v>1168.419567305365</v>
       </c>
       <c r="C35" t="n">
-        <v>1915.795428917911</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.180013910635</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.596489027179</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>362.0813102962987</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="W35" t="n">
-        <v>3105.956385205776</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="X35" t="n">
-        <v>3105.956385205776</v>
+        <v>1965.405022096161</v>
       </c>
       <c r="Y35" t="n">
-        <v>2709.465676126377</v>
+        <v>1568.914313016762</v>
       </c>
     </row>
     <row r="36">
@@ -7029,10 +7031,10 @@
         <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.8176112395708</v>
+        <v>2361.835297451251</v>
       </c>
       <c r="C37" t="n">
-        <v>128.8176112395708</v>
+        <v>2361.835297451251</v>
       </c>
       <c r="D37" t="n">
-        <v>128.8176112395708</v>
+        <v>2361.835297451251</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8176112395708</v>
+        <v>2361.835297451251</v>
       </c>
       <c r="F37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V37" t="n">
-        <v>412.1480133083932</v>
+        <v>2839.977040026601</v>
       </c>
       <c r="W37" t="n">
-        <v>128.8176112395708</v>
+        <v>2595.915619668268</v>
       </c>
       <c r="X37" t="n">
-        <v>128.8176112395708</v>
+        <v>2361.835297451251</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.8176112395708</v>
+        <v>2361.835297451251</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>864.7594895369125</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C38" t="n">
-        <v>864.7594895369125</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D38" t="n">
-        <v>864.7594895369125</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E38" t="n">
-        <v>864.7594895369125</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F38" t="n">
-        <v>864.7594895369125</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H38" t="n">
         <v>200.4562446116507</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>2051.197549394652</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X38" t="n">
-        <v>1661.744944327708</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y38" t="n">
-        <v>1265.254235248309</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1345.668748541356</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7357,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T40" t="n">
-        <v>896.8676667102127</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U40" t="n">
-        <v>611.4288749521137</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="V40" t="n">
-        <v>345.4495297729379</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411553</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>290.9506923794344</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.83863119607773</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2535.796644191037</v>
+        <v>2504.95920735295</v>
       </c>
       <c r="C41" t="n">
-        <v>2142.621142693967</v>
+        <v>2111.78370585588</v>
       </c>
       <c r="D41" t="n">
-        <v>1757.180013910635</v>
+        <v>1726.342577072548</v>
       </c>
       <c r="E41" t="n">
-        <v>1354.596489027179</v>
+        <v>1323.759052189092</v>
       </c>
       <c r="F41" t="n">
-        <v>937.702050557157</v>
+        <v>906.8646137190702</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>493.7018582070734</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>169.618807773564</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U41" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V41" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W41" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X41" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="Y41" t="n">
-        <v>2936.291389902433</v>
+        <v>2504.95920735295</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>806.3890324773372</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>570.6699806455713</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>285.2311888874722</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>285.2311888874722</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>285.2311888874722</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>285.2311888874722</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1530.670136571906</v>
+        <v>1602.903190099242</v>
       </c>
       <c r="C44" t="n">
-        <v>1137.494635074837</v>
+        <v>1209.727688602173</v>
       </c>
       <c r="D44" t="n">
-        <v>752.0535062915046</v>
+        <v>1209.727688602173</v>
       </c>
       <c r="E44" t="n">
-        <v>349.4699814080491</v>
+        <v>1209.727688602173</v>
       </c>
       <c r="F44" t="n">
-        <v>349.4699814080491</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>318.7636682303387</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749193</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.575851912381</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2327.655591362702</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W44" t="n">
-        <v>2327.655591362702</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X44" t="n">
-        <v>2327.655591362702</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y44" t="n">
-        <v>1931.164882283303</v>
+        <v>2003.397935810639</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154434</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1614.763130931309</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2131.28341352229</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>306.3595905514212</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="C46" t="n">
-        <v>136.1544726174104</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>948.7599926430961</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>948.7599926430961</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>948.7599926430961</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="X46" t="n">
-        <v>714.6796704260792</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="Y46" t="n">
-        <v>491.5676092427225</v>
+        <v>178.0676910913762</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7991,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>318.4970894367924</v>
+        <v>400.3730943507983</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8061,22 +8063,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>203.2753887107827</v>
       </c>
       <c r="M3" t="n">
-        <v>481.5498369029708</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8225,10 +8227,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>487.848403846783</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8295,22 +8297,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>308.5636983559933</v>
       </c>
       <c r="N6" t="n">
-        <v>388.298409013546</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,7 +8455,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8532,16 +8534,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238536</v>
+        <v>301.5486891608481</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8696,13 +8698,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401696</v>
       </c>
       <c r="N11" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
@@ -8766,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>640.0165851180136</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8930,22 +8932,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>616.3484143223229</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>317.5329465084867</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>553.2668652653155</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>238.3374974274113</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>224.834151932995</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9884,7 +9886,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
         <v>594.0482827698827</v>
@@ -9954,10 +9956,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9969,10 +9971,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10428,7 +10430,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10443,7 +10445,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10677,13 +10679,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>412.7428484698906</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>742.9781195708306</v>
       </c>
       <c r="O39" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
@@ -11145,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11373,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N45" t="n">
-        <v>588.7923855055301</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.7055037124781</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>130.0953788601545</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22710,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004117</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8358689244579</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>75.97706831454906</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -22841,16 +22843,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22960,10 +22962,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723061</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22993,16 +22995,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>257.4184037529241</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -23027,19 +23029,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>393.9700424565237</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>250.6560209729184</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23191,16 +23193,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>146.7124589214579</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.5376379391876</v>
+        <v>11.64655108529166</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23437,7 +23439,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>96.28377346925515</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.48239428282028</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23546,16 +23548,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23704,7 +23706,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>195.9288447025432</v>
+        <v>121.5789931280021</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23792,13 +23794,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W19" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23981,10 +23983,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>373.2858920362253</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.12899220323447</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24133,22 +24135,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>22.31857408728013</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>140.2492209098997</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24193,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -24218,13 +24220,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>14.4090783592759</v>
       </c>
       <c r="T23" t="n">
-        <v>61.70704469689781</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>60.39847475326043</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24418,16 +24420,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947457</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.26927520960618</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>69.27875562895946</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24740,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>316.9701383469834</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>18.31572408021367</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24889,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>74.04686661181503</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>56.07133478076895</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24977,10 +24979,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.1400749395018</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.15966136820188</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>224.5574566382955</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>23.8796591629129</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25211,13 +25213,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>100.5400146614482</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25366,16 +25368,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>38.87629189338477</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25391,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>289.2733157253953</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>72.21313541004196</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25436,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>177.6936300473457</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25597,25 +25599,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>30.52906246970582</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.4058761466552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>87.97172531928879</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>45.18257638862872</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>6.466366682296666</v>
       </c>
       <c r="G44" t="n">
-        <v>109.8956867634364</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25922,16 +25924,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>66.12369447580227</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26035,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>51.78243560816081</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26077,10 +26079,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621724.6288914082</v>
+        <v>621724.628891408</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621724.6288914084</v>
+        <v>621724.628891408</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621724.6288914084</v>
+        <v>621724.6288914082</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621724.6288914086</v>
+        <v>621724.6288914084</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621724.6288914083</v>
+        <v>700452.813993501</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700452.813993501</v>
+        <v>700452.8139935014</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700452.8139935012</v>
+        <v>700452.813993501</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700452.8139935011</v>
+        <v>700452.8139935012</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700452.8139935011</v>
+        <v>700452.813993501</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700452.8139935012</v>
+        <v>700452.8139935009</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700452.8139935011</v>
+        <v>700452.813993501</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621724.6288914079</v>
+        <v>700452.8139935012</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214566.1743955704</v>
+        <v>214566.1743955703</v>
       </c>
       <c r="C2" t="n">
         <v>214566.1743955704</v>
       </c>
       <c r="D2" t="n">
-        <v>214566.1743955704</v>
+        <v>214566.1743955703</v>
       </c>
       <c r="E2" t="n">
-        <v>214566.1743955704</v>
+        <v>214566.1743955703</v>
       </c>
       <c r="F2" t="n">
         <v>214566.1743955703</v>
       </c>
       <c r="G2" t="n">
-        <v>214566.1743955703</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="H2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="I2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="J2" t="n">
         <v>241723.0823229922</v>
@@ -26344,7 +26346,7 @@
         <v>241723.0823229923</v>
       </c>
       <c r="M2" t="n">
-        <v>241723.0823229921</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="N2" t="n">
         <v>241723.0823229922</v>
@@ -26353,7 +26355,7 @@
         <v>241723.0823229922</v>
       </c>
       <c r="P2" t="n">
-        <v>214566.1743955704</v>
+        <v>241723.0823229922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50726.82133126163</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>154739.4343656033</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44538.95791520675</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,25 +26423,25 @@
         <v>46245.16569024821</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="E4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="G4" t="n">
-        <v>46245.16569024821</v>
+        <v>52165.99257608331</v>
       </c>
       <c r="H4" t="n">
         <v>52165.99257608331</v>
       </c>
       <c r="I4" t="n">
+        <v>52165.99257608332</v>
+      </c>
+      <c r="J4" t="n">
         <v>52165.99257608331</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52165.99257608332</v>
       </c>
       <c r="K4" t="n">
         <v>52165.99257608331</v>
@@ -26457,7 +26459,7 @@
         <v>52165.99257608331</v>
       </c>
       <c r="P4" t="n">
-        <v>46245.16569024821</v>
+        <v>52165.99257608331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99460.25456359595</v>
+        <v>-99460.25456359594</v>
       </c>
       <c r="C6" t="n">
         <v>98735.55142814905</v>
@@ -26534,16 +26536,16 @@
         <v>132363.151428149</v>
       </c>
       <c r="G6" t="n">
-        <v>132363.151428149</v>
+        <v>91619.73136051954</v>
       </c>
       <c r="H6" t="n">
-        <v>92411.12048437711</v>
+        <v>142346.5526917811</v>
       </c>
       <c r="I6" t="n">
-        <v>142346.5526917812</v>
+        <v>142346.5526917811</v>
       </c>
       <c r="J6" t="n">
-        <v>-12392.88167382231</v>
+        <v>-12392.88167382224</v>
       </c>
       <c r="K6" t="n">
         <v>142346.5526917811</v>
@@ -26552,16 +26554,16 @@
         <v>142346.5526917812</v>
       </c>
       <c r="M6" t="n">
-        <v>142346.552691781</v>
+        <v>142346.5526917811</v>
       </c>
       <c r="N6" t="n">
         <v>142346.5526917811</v>
       </c>
       <c r="O6" t="n">
+        <v>97807.59477657438</v>
+      </c>
+      <c r="P6" t="n">
         <v>142346.5526917811</v>
-      </c>
-      <c r="P6" t="n">
-        <v>132363.151428149</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692947</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34711,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>168.1956421958672</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>113.2150418538645</v>
       </c>
       <c r="M3" t="n">
-        <v>389.1627148536588</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34945,10 +34947,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>338.7299125089989</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>216.1765763066814</v>
       </c>
       <c r="N6" t="n">
-        <v>302.9262961593793</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696869</v>
+        <v>216.1765763066815</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35416,13 +35418,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424423</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>554.644472263847</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35650,22 +35652,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>463.1002445918313</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>227.4725996515685</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>467.8947524111488</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>148.740562094078</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>137.7507871136803</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36689,10 +36691,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>35.05004611020369</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37163,7 +37165,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>320.0552895810017</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>657.606006716664</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N45" t="n">
-        <v>503.4202726513635</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754606.3096623628</v>
+        <v>749368.8472815204</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2396483.305182807</v>
+        <v>2396483.305182805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8681080.949752063</v>
+        <v>8681080.949752066</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7734918.746270832</v>
+        <v>7734918.746270834</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>278.9357490967223</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.160275902990602</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>336.7484257707729</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>50.82631259276416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.96189723698674</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1113,10 +1113,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06108550035312</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>1.815798473041775</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1201,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>19.85905444009098</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.6926523830316</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>384.8432471689912</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>318.5468378758551</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>76.07295117250712</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>22.96189723698674</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>292.9599730128435</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1663,19 +1663,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>67.83872679650106</v>
       </c>
     </row>
     <row r="15">
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -1830,7 +1830,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>67.08267025974386</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>99.68660328817539</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>164.0116202804579</v>
       </c>
       <c r="V19" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>232.3968780661253</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74523592065157</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>123.0703308174843</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>150.439341149084</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -2541,7 +2541,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>46.96264921361068</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2563,19 +2563,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>269.4069855745573</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2775,7 +2775,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>66.68447052885355</v>
+        <v>229.0598701360104</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>157.6926523830317</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>131.8599499899533</v>
       </c>
       <c r="E32" t="n">
-        <v>342.4863548538519</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3189,28 +3189,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>85.84356265118763</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>366.326497550822</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>296.9625607662613</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.924218144693078</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>241.6208061547494</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>92.31340177010368</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>191.6541629312305</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.662308457042578</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -3760,7 +3760,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>106.424683268754</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>332.2594884921584</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>406.2591274030253</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>54.14448028450683</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>114.7890777533881</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>239.0241697704908</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1927.160845651304</v>
+        <v>862.595309970646</v>
       </c>
       <c r="C2" t="n">
-        <v>1533.985344154235</v>
+        <v>469.4198084735766</v>
       </c>
       <c r="D2" t="n">
-        <v>1148.544215370903</v>
+        <v>469.4198084735766</v>
       </c>
       <c r="E2" t="n">
-        <v>745.960690487447</v>
+        <v>469.4198084735766</v>
       </c>
       <c r="F2" t="n">
-        <v>329.0662520174247</v>
+        <v>52.52537000355431</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>52.52537000355431</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>52.52537000355431</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
@@ -4339,43 +4339,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N2" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>2118.077574438405</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.655591362701</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.655591362701</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.655591362701</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.655591362701</v>
+        <v>1263.090055682043</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769801</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4521,19 +4521,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.663050286384</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.487548789314</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="D5" t="n">
-        <v>790.0464200059819</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="E5" t="n">
-        <v>387.4628951225264</v>
+        <v>511.8154353032012</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154359</v>
+        <v>511.8154353032012</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>98.65267979120438</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>98.65267979120438</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.157795997781</v>
+        <v>914.3989601866567</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>100.8850758683575</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>524.9463551197125</v>
+        <v>434.5882387566352</v>
       </c>
       <c r="C8" t="n">
-        <v>524.9463551197125</v>
+        <v>434.5882387566352</v>
       </c>
       <c r="D8" t="n">
-        <v>524.9463551197125</v>
+        <v>49.14710997330297</v>
       </c>
       <c r="E8" t="n">
-        <v>524.9463551197125</v>
+        <v>49.14710997330297</v>
       </c>
       <c r="F8" t="n">
-        <v>524.9463551197125</v>
+        <v>49.14710997330297</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>49.14710997330297</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>49.14710997330297</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863168</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297767</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297767</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>1310.889669266055</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X8" t="n">
-        <v>921.4370641991114</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="Y8" t="n">
-        <v>524.9463551197125</v>
+        <v>835.0829844680321</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226186</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W10" t="n">
-        <v>386.3238676264566</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X10" t="n">
-        <v>386.3238676264566</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>784.5587760470498</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C11" t="n">
-        <v>784.5587760470498</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D11" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E11" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
         <v>191.9627430103717</v>
@@ -5047,46 +5047,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M11" t="n">
-        <v>1392.57585191238</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T11" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U11" t="n">
-        <v>1886.395173071195</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V11" t="n">
-        <v>1544.288363774713</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W11" t="n">
-        <v>1173.289328743001</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.289328743001</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.289328743001</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
         <v>160.427952321271</v>
@@ -5126,16 +5126,16 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1670983834974</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1065.665103390099</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N12" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
         <v>2131.283413522289</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.69124027544164</v>
+        <v>385.7721419361088</v>
       </c>
       <c r="C13" t="n">
-        <v>77.69124027544164</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D13" t="n">
-        <v>77.69124027544164</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E13" t="n">
-        <v>77.69124027544164</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F13" t="n">
-        <v>77.69124027544164</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>669.1025440049311</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>669.1025440049311</v>
       </c>
       <c r="V13" t="n">
-        <v>77.69124027544164</v>
+        <v>669.1025440049311</v>
       </c>
       <c r="W13" t="n">
-        <v>77.69124027544164</v>
+        <v>385.7721419361088</v>
       </c>
       <c r="X13" t="n">
-        <v>77.69124027544164</v>
+        <v>385.7721419361088</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.69124027544164</v>
+        <v>385.7721419361088</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1173.289328743001</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C14" t="n">
-        <v>877.3701640835627</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D14" t="n">
-        <v>877.3701640835627</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E14" t="n">
         <v>877.3701640835627</v>
@@ -5269,61 +5269,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L14" t="n">
-        <v>864.7645682749184</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749184</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.57585191238</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.615452804709</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.147902636596</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>1886.395173071195</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V14" t="n">
-        <v>1544.288363774713</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W14" t="n">
-        <v>1173.289328743001</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.289328743001</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="Y14" t="n">
-        <v>1173.289328743001</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>745.9259573278729</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N15" t="n">
         <v>1209.14176221491</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>663.3212008849971</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>397.3418557058213</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1243.319282867973</v>
+        <v>1321.658786486154</v>
       </c>
       <c r="C17" t="n">
-        <v>850.1437813709033</v>
+        <v>928.483284989085</v>
       </c>
       <c r="D17" t="n">
-        <v>464.702652587571</v>
+        <v>543.0421562057527</v>
       </c>
       <c r="E17" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F17" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
         <v>62.11912770411553</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2800.756377757424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2800.756377757424</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V17" t="n">
-        <v>2800.756377757424</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="W17" t="n">
-        <v>2429.757342725712</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="X17" t="n">
-        <v>2040.304737658769</v>
+        <v>2118.64424127695</v>
       </c>
       <c r="Y17" t="n">
-        <v>1643.81402857937</v>
+        <v>1722.153532197551</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5697,22 +5697,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>115.6912334709294</v>
+        <v>562.1787951003082</v>
       </c>
       <c r="V19" t="n">
-        <v>62.11912770411553</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411553</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X19" t="n">
         <v>62.11912770411553</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>560.6455939549091</v>
+        <v>1529.504167848504</v>
       </c>
       <c r="C20" t="n">
-        <v>560.6455939549091</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D20" t="n">
-        <v>560.6455939549091</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>560.6455939549091</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>560.6455939549091</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5785,19 +5785,19 @@
         <v>2715.942227706244</v>
       </c>
       <c r="U20" t="n">
-        <v>2460.189498140842</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V20" t="n">
-        <v>2118.082688844361</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W20" t="n">
-        <v>1747.083653812648</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X20" t="n">
-        <v>1357.631048745705</v>
+        <v>2326.4896226393</v>
       </c>
       <c r="Y20" t="n">
-        <v>961.1403396663061</v>
+        <v>1929.998913559901</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1084.690231197904</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5940,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>727.847098413902</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>727.847098413902</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>603.5336329416956</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>603.5336329416956</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>603.5336329416956</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>380.4215717583389</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>937.702050557157</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C23" t="n">
-        <v>937.702050557157</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D23" t="n">
-        <v>937.702050557157</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>937.702050557157</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6016,25 +6016,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>2916.004541037678</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T23" t="n">
-        <v>2692.503938597094</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U23" t="n">
-        <v>2436.751209031693</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V23" t="n">
-        <v>2094.644399735212</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W23" t="n">
-        <v>1723.645364703499</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X23" t="n">
-        <v>1334.192759636556</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y23" t="n">
-        <v>937.702050557157</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>2820.517593447677</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>2554.538248268502</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2073.376476849992</v>
+        <v>1303.155925325562</v>
       </c>
       <c r="C26" t="n">
-        <v>1680.200975352922</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D26" t="n">
-        <v>1294.75984656959</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E26" t="n">
-        <v>892.1763216861347</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F26" t="n">
-        <v>475.2818832161124</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V26" t="n">
-        <v>2833.828116948648</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W26" t="n">
-        <v>2462.829081916935</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X26" t="n">
-        <v>2073.376476849992</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="Y26" t="n">
-        <v>2073.376476849992</v>
+        <v>1350.592944733249</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6414,13 +6414,13 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>896.8676667102127</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>611.4288749521137</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>345.4495297729379</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
         <v>62.11912770411553</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.652680240431</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="C29" t="n">
-        <v>129.4771787433615</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="D29" t="n">
-        <v>62.11912770411553</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="E29" t="n">
-        <v>62.11912770411553</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6496,19 +6496,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>1964.843469663571</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>1575.390864596628</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>2870.237333374011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>2870.237333374011</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>2870.237333374011</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>2586.906931305188</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>2427.62142384758</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1325.018687875741</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C32" t="n">
-        <v>931.8431863786718</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D32" t="n">
-        <v>546.4020575953396</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E32" t="n">
-        <v>200.4562446116507</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F32" t="n">
-        <v>200.4562446116507</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G32" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
         <v>200.4562446116507</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W32" t="n">
-        <v>2511.45674773348</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X32" t="n">
-        <v>2122.004142666537</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y32" t="n">
-        <v>1725.513433587138</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2935.751267271766</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2935.751267271766</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2691.714663140105</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2523.46060923955</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1168.419567305365</v>
+        <v>1149.404444837545</v>
       </c>
       <c r="C35" t="n">
-        <v>775.2440658082955</v>
+        <v>756.2289433404753</v>
       </c>
       <c r="D35" t="n">
-        <v>775.2440658082955</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E35" t="n">
-        <v>775.2440658082955</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F35" t="n">
-        <v>775.2440658082955</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G35" t="n">
-        <v>362.0813102962987</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6964,25 +6964,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U35" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V35" t="n">
-        <v>2725.856662194817</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W35" t="n">
-        <v>2354.857627163104</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="X35" t="n">
-        <v>1965.405022096161</v>
+        <v>1946.389899628341</v>
       </c>
       <c r="Y35" t="n">
-        <v>1568.914313016762</v>
+        <v>1549.899190548942</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2361.835297451251</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="C37" t="n">
-        <v>2361.835297451251</v>
+        <v>224.5918384847358</v>
       </c>
       <c r="D37" t="n">
-        <v>2361.835297451251</v>
+        <v>224.5918384847358</v>
       </c>
       <c r="E37" t="n">
-        <v>2361.835297451251</v>
+        <v>224.5918384847358</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664224</v>
+        <v>224.5918384847358</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>2839.977040026601</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W37" t="n">
-        <v>2595.915619668268</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X37" t="n">
-        <v>2361.835297451251</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="Y37" t="n">
-        <v>2361.835297451251</v>
+        <v>394.7969564187466</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1919.518325348037</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>1526.342823850968</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>1433.096963477125</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>1030.51343859367</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>613.6190001236475</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X38" t="n">
-        <v>2716.503780138833</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>2320.013071059434</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7256,13 +7256,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
         <v>1629.56928853388</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>698.8910416299798</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411553</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G40" t="n">
         <v>62.11912770411553</v>
@@ -7359,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>525.0310145964513</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="U40" t="n">
-        <v>525.0310145964513</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="V40" t="n">
-        <v>525.0310145964513</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="W40" t="n">
-        <v>525.0310145964513</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="X40" t="n">
-        <v>290.9506923794344</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.83863119607773</v>
+        <v>869.0961595639906</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2504.95920735295</v>
+        <v>1577.981563930023</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.78370585588</v>
+        <v>1184.806062432954</v>
       </c>
       <c r="D41" t="n">
-        <v>1726.342577072548</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="E41" t="n">
-        <v>1323.759052189092</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F41" t="n">
-        <v>906.8646137190702</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G41" t="n">
-        <v>493.7018582070734</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H41" t="n">
-        <v>169.618807773564</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U41" t="n">
-        <v>2901.449916432349</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V41" t="n">
-        <v>2901.449916432349</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W41" t="n">
-        <v>2901.449916432349</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X41" t="n">
-        <v>2901.449916432349</v>
+        <v>1577.981563930023</v>
       </c>
       <c r="Y41" t="n">
-        <v>2504.95920735295</v>
+        <v>1577.981563930023</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>658.8001958221562</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
         <v>62.11912770411553</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W43" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1602.903190099242</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C44" t="n">
-        <v>1209.727688602173</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D44" t="n">
-        <v>1209.727688602173</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="E44" t="n">
-        <v>1209.727688602173</v>
+        <v>1085.204832820444</v>
       </c>
       <c r="F44" t="n">
-        <v>799.3649336496217</v>
+        <v>668.3103943504221</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2021781376249</v>
+        <v>255.1476388384253</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V44" t="n">
-        <v>2763.849575909295</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.850540877582</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X44" t="n">
-        <v>2003.397935810639</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y44" t="n">
-        <v>2003.397935810639</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="45">
@@ -7733,13 +7733,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.690231197904</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
         <v>62.11912770411553</v>
@@ -7833,25 +7833,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U46" t="n">
-        <v>678.1273584875689</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V46" t="n">
-        <v>412.1480133083932</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="W46" t="n">
-        <v>412.1480133083932</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X46" t="n">
-        <v>178.0676910913762</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y46" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>400.3730943507983</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8060,25 +8060,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>203.2753887107827</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8227,16 +8227,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,16 +8297,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>308.5636983559933</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8467,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8534,16 +8534,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>301.5486891608481</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8695,13 +8695,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>501.5538002401696</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1184913377841</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8774,19 +8774,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>640.0165851180136</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8929,13 +8929,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>616.3484143223229</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,16 +9008,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>553.2668652653155</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9172,7 +9172,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9421,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9485,22 +9485,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>688.0608343844987</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>349.0412045852374</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,16 +10904,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>742.9781195708306</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11071,7 +11071,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>663.2434089132776</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11381,16 +11381,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>688.0608343844987</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>130.0953788601545</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>131.7934698354692</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -22606,13 +22606,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>75.97706831454906</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>86.12743314569565</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -22962,10 +22962,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>108.8015838723061</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,10 +23001,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23035,13 +23035,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>393.9700424565237</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>135.137947265418</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23193,16 +23193,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>146.7124589214579</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>105.6268993443524</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.64655108529166</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23272,10 +23272,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>73.97896411274979</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23430,7 +23430,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>153.923765528121</v>
@@ -23439,7 +23439,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>157.2889101409411</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>96.28377346925515</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>324.6870751921038</v>
       </c>
     </row>
     <row r="15">
@@ -23706,7 +23706,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>331.475019374877</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>121.5789931280021</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="V19" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>156.8468684159734</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>373.2858920362253</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24147,7 +24147,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>140.2492209098997</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.4090783592759</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.7080202947457</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>349.5271490406722</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>69.27875562895946</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24654,7 +24654,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>314.9022469666454</v>
+        <v>152.5268473594886</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>74.04686661181503</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>249.7267675055456</v>
       </c>
       <c r="E32" t="n">
-        <v>56.07133478076895</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,28 +25077,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>68.15966136820188</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>15.26021994467698</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -25168,10 +25168,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>23.8796591629129</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25323,13 +25323,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>159.6472952168558</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25368,16 +25368,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>38.87629189338477</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>289.2733157253953</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25453,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>175.6348817501649</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6936300473457</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25599,10 +25599,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.8365705385876</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -25614,10 +25614,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.52906246970582</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>53.29859052411535</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>87.97172531928879</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25873,19 +25873,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.466366682296666</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.6977396446674</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>51.78243560816081</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26073,16 +26073,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>24.29538195689321</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621724.628891408</v>
+        <v>621724.6288914086</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621724.628891408</v>
+        <v>621724.6288914086</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621724.6288914082</v>
+        <v>621724.6288914086</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621724.6288914084</v>
+        <v>621724.6288914083</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621724.6288914084</v>
+        <v>621724.6288914083</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700452.8139935014</v>
+        <v>700452.813993501</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700452.8139935012</v>
+        <v>700452.813993501</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700452.813993501</v>
+        <v>700452.8139935011</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700452.8139935012</v>
+        <v>700452.8139935011</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700452.8139935009</v>
+        <v>700452.813993501</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700452.813993501</v>
+        <v>700452.8139935011</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700452.8139935012</v>
+        <v>700452.8139935009</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214566.1743955703</v>
+        <v>214566.1743955704</v>
       </c>
       <c r="C2" t="n">
         <v>214566.1743955704</v>
@@ -26322,13 +26322,13 @@
         <v>214566.1743955703</v>
       </c>
       <c r="E2" t="n">
-        <v>214566.1743955703</v>
+        <v>214566.1743955704</v>
       </c>
       <c r="F2" t="n">
-        <v>214566.1743955703</v>
+        <v>214566.1743955704</v>
       </c>
       <c r="G2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="H2" t="n">
         <v>241723.0823229922</v>
@@ -26343,13 +26343,13 @@
         <v>241723.0823229922</v>
       </c>
       <c r="L2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229921</v>
       </c>
       <c r="M2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="N2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="O2" t="n">
         <v>241723.0823229922</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50726.82133126163</v>
+        <v>50726.82133126157</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656033</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44538.95791520675</v>
+        <v>44538.95791520669</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>46245.16569024821</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="E4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="G4" t="n">
         <v>52165.99257608331</v>
@@ -26438,7 +26438,7 @@
         <v>52165.99257608331</v>
       </c>
       <c r="I4" t="n">
-        <v>52165.99257608332</v>
+        <v>52165.99257608331</v>
       </c>
       <c r="J4" t="n">
         <v>52165.99257608331</v>
@@ -26453,7 +26453,7 @@
         <v>52165.99257608331</v>
       </c>
       <c r="N4" t="n">
-        <v>52165.99257608331</v>
+        <v>52165.99257608332</v>
       </c>
       <c r="O4" t="n">
         <v>52165.99257608331</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99460.25456359594</v>
+        <v>-100134.280689816</v>
       </c>
       <c r="C6" t="n">
-        <v>98735.55142814905</v>
+        <v>98061.52530192898</v>
       </c>
       <c r="D6" t="n">
-        <v>98735.55142814902</v>
+        <v>98061.52530192892</v>
       </c>
       <c r="E6" t="n">
-        <v>132363.151428149</v>
+        <v>131689.125301929</v>
       </c>
       <c r="F6" t="n">
-        <v>132363.151428149</v>
+        <v>131689.125301929</v>
       </c>
       <c r="G6" t="n">
-        <v>91619.73136051954</v>
+        <v>91088.63632865435</v>
       </c>
       <c r="H6" t="n">
-        <v>142346.5526917811</v>
+        <v>141815.4576599159</v>
       </c>
       <c r="I6" t="n">
-        <v>142346.5526917811</v>
+        <v>141815.4576599159</v>
       </c>
       <c r="J6" t="n">
-        <v>-12392.88167382224</v>
+        <v>-12923.97670568755</v>
       </c>
       <c r="K6" t="n">
-        <v>142346.5526917811</v>
+        <v>141815.4576599159</v>
       </c>
       <c r="L6" t="n">
-        <v>142346.5526917812</v>
+        <v>141815.4576599158</v>
       </c>
       <c r="M6" t="n">
-        <v>142346.5526917811</v>
+        <v>141815.4576599159</v>
       </c>
       <c r="N6" t="n">
-        <v>142346.5526917811</v>
+        <v>141815.457659916</v>
       </c>
       <c r="O6" t="n">
-        <v>97807.59477657438</v>
+        <v>97276.49974470925</v>
       </c>
       <c r="P6" t="n">
-        <v>142346.5526917811</v>
+        <v>141815.4576599159</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692947</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>250.0716471098731</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>113.2150418538645</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34947,16 +34947,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>216.1765763066814</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35187,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>216.1765763066815</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>351.8287486424423</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35494,19 +35494,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>554.644472263847</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>463.1002445918313</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>467.8947524111488</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35892,13 +35892,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>595.6737123351868</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>259.444269251904</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>657.606006716664</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37791,7 +37791,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>570.8562868639657</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38101,16 +38101,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>595.6737123351868</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
